--- a/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr1_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr1_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -189,58 +240,58 @@
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="16.24609375" customWidth="true"/>
-    <col min="4" max="4" width="16.24609375" customWidth="true"/>
+    <col min="3" max="3" width="13.24609375" customWidth="true"/>
+    <col min="4" max="4" width="15.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.77734375" customWidth="true"/>
-    <col min="8" max="8" width="15.77734375" customWidth="true"/>
+    <col min="7" max="7" width="16.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.64453125" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.64453125" customWidth="true"/>
-    <col min="11" max="11" width="16.24609375" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="11" max="11" width="15.77734375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29270745118441177</v>
+        <v>0.29723490514447071</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29365276805541107</v>
+        <v>0.2858571176147674</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>2.1075409233085076e-05</v>
+        <v>-0.0036885511064345942</v>
       </c>
       <c r="E3" s="0">
-        <v>3.9751779437007503e-05</v>
+        <v>3.1098936412627424e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>0.00024528331573116517</v>
+        <v>-0.00011705728706734234</v>
       </c>
       <c r="G3" s="0">
-        <v>1.2669825070328381e-06</v>
+        <v>-4.5877941732425922e-05</v>
       </c>
       <c r="H3" s="0">
-        <v>6.1009961557856394e-06</v>
+        <v>1.6401920316193958e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-2.5460329635046703e-08</v>
+        <v>5.1354738903497812e-05</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-2.220621321769034e-06</v>
+        <v>4.0577933718588532e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29614925151968563</v>
+        <v>0.27283383032836528</v>
       </c>
       <c r="C4" s="0">
-        <v>0.00088181478523437511</v>
+        <v>0.010980672000564037</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-1.4623326162017187e-06</v>
+        <v>-4.8591055516786726e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>-8.6195638771730003e-06</v>
+        <v>-2.1770468970338968e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-1.7818238626486462e-06</v>
+        <v>0.00016130731277395321</v>
       </c>
       <c r="I4" s="0">
-        <v>3.0181872383580021e-06</v>
+        <v>-0.00040153042047277356</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00028480515084416827</v>
+        <v>0.0023777368620207344</v>
       </c>
       <c r="K4" s="0">
-        <v>6.1445515120439609e-08</v>
+        <v>-3.3410608957784582e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29671184737921102</v>
+        <v>0.26749214252803671</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.00042670488816455332</v>
+        <v>-0.0031768357825546229</v>
       </c>
       <c r="E5" s="0">
-        <v>-1.9293967650504497e-05</v>
+        <v>-0.00073660546081860158</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00015863241184872182</v>
+        <v>0.0013798902791029796</v>
       </c>
       <c r="G5" s="0">
-        <v>6.9163912026555667e-06</v>
+        <v>-0.00014822756859973337</v>
       </c>
       <c r="H5" s="0">
-        <v>1.4321646549771979e-06</v>
+        <v>0.00017311506288551301</v>
       </c>
       <c r="I5" s="0">
-        <v>-2.2703303493384991e-05</v>
+        <v>-9.8662843373919717e-05</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-6.2233732685545995e-06</v>
+        <v>0.000957419207285648</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.29512526062461647</v>
+        <v>0.25567667746672373</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.00045596848013634318</v>
+        <v>-0.021812293501366257</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-3.5477300367418098e-07</v>
+        <v>-7.7247203484701611e-07</v>
       </c>
       <c r="F6" s="0">
-        <v>-4.2404802530560496e-05</v>
+        <v>0.00011912543465404504</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-2.1550240976140842e-05</v>
+        <v>0.00027753704148356328</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.00013568512557793775</v>
+        <v>0.004727058429804077</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-3.4163958850808029e-07</v>
+        <v>2.9382331157568053e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.29270677444244875</v>
+        <v>0.25168882998287734</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.00037330446505759235</v>
+        <v>-0.0006995757377935832</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00021855494923736109</v>
+        <v>0.00071929382434721839</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00022028300759847704</v>
+        <v>9.0447394409473841e-05</v>
       </c>
       <c r="G7" s="0">
-        <v>4.8278081569750638e-06</v>
+        <v>0.0028644285764644561</v>
       </c>
       <c r="H7" s="0">
-        <v>5.2133281713552688e-06</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-1.8243014775944009e-05</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.00035405791730092062</v>
+        <v>-0.00036261941952914212</v>
       </c>
     </row>
     <row r="8">
